--- a/testdata/concept_sample.xlsx
+++ b/testdata/concept_sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KSF\OneDrive - Digitaliseringsdirektoratet\FDK\Begrepskatalogen\Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1467A0F4-D59B-4E18-BDEB-0045E9A5BA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2717D0-C664-4633-A601-078CA72A0F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0D71C8DE-FFC6-4C38-A8B7-31A885885E57}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0D71C8DE-FFC6-4C38-A8B7-31A885885E57}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -254,9 +254,6 @@
     <t>e-post@epost.no</t>
   </si>
   <si>
-    <t>0.0.1</t>
-  </si>
-  <si>
     <t>anbefalt term 2_en</t>
   </si>
   <si>
@@ -492,6 +489,9 @@
   </si>
   <si>
     <t>Tittel verdiområde 3</t>
+  </si>
+  <si>
+    <t>0.1.0</t>
   </si>
 </sst>
 </file>
@@ -858,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD11A17F-0E2C-4CD9-9EEE-9D89ADBBA827}">
   <dimension ref="A1:AR4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AL8" sqref="AL8"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AR4" sqref="AR4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,132 +1114,132 @@
         <v>47474747</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AQ2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AR2" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
         <v>73</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>74</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>75</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>76</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>77</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>78</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>79</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>80</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>81</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>82</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>83</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>84</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>85</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>86</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>87</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>88</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>89</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T3" t="s">
         <v>90</v>
       </c>
-      <c r="S3" t="s">
-        <v>85</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>91</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>92</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>93</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>94</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z3" t="s">
         <v>95</v>
       </c>
-      <c r="Y3" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>96</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>97</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>98</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>99</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>100</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>101</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>102</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>103</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>104</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>105</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AK3" t="s">
         <v>106</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AL3" t="s">
         <v>107</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>108</v>
       </c>
       <c r="AM3" t="s">
         <v>71</v>
@@ -1248,132 +1248,132 @@
         <v>47474747</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AQ3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AR3" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" t="s">
         <v>109</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>110</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>111</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>112</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>113</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>114</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>115</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>116</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>117</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>118</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>119</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>120</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>121</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>122</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>123</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>124</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>125</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
+        <v>120</v>
+      </c>
+      <c r="T4" t="s">
         <v>126</v>
       </c>
-      <c r="S4" t="s">
-        <v>121</v>
-      </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>127</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>128</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>129</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>130</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z4" t="s">
         <v>131</v>
       </c>
-      <c r="Y4" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>132</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>133</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>134</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>135</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>136</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>137</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>138</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AH4" t="s">
         <v>139</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
         <v>140</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AJ4" t="s">
         <v>141</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AK4" t="s">
         <v>142</v>
       </c>
-      <c r="AK4" t="s">
-        <v>143</v>
-      </c>
       <c r="AL4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AM4" t="s">
         <v>71</v>
@@ -1382,16 +1382,16 @@
         <v>47474747</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AP4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ4" t="s">
         <v>149</v>
       </c>
-      <c r="AQ4" t="s">
-        <v>150</v>
-      </c>
       <c r="AR4" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
